--- a/logs/runtime.xlsx
+++ b/logs/runtime.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:F193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4269,8 +4269,6 @@
           <t>script_start</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr">
         <is>
           <t>2026-02-26 15:45:41</t>
@@ -4296,7 +4294,6 @@
       <c r="D155" t="n">
         <v>1</v>
       </c>
-      <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr">
         <is>
           <t>2026-02-26 15:45:41</t>
@@ -4322,7 +4319,6 @@
       <c r="D156" t="n">
         <v>1</v>
       </c>
-      <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr">
         <is>
           <t>2026-02-26 15:45:41</t>
@@ -4348,7 +4344,6 @@
       <c r="D157" t="n">
         <v>1</v>
       </c>
-      <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr">
         <is>
           <t>2026-02-26 16:11:17</t>
@@ -4374,7 +4369,6 @@
       <c r="D158" t="n">
         <v>1</v>
       </c>
-      <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr">
         <is>
           <t>2026-02-26 16:11:20</t>
@@ -4400,7 +4394,6 @@
       <c r="D159" t="n">
         <v>1</v>
       </c>
-      <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr">
         <is>
           <t>2026-02-26 16:27:05</t>
@@ -4426,7 +4419,6 @@
       <c r="D160" t="n">
         <v>1</v>
       </c>
-      <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr">
         <is>
           <t>2026-02-26 16:27:05</t>
@@ -4452,7 +4444,6 @@
       <c r="D161" t="n">
         <v>1</v>
       </c>
-      <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr">
         <is>
           <t>2026-02-26 16:51:47</t>
@@ -4478,7 +4469,6 @@
       <c r="D162" t="n">
         <v>1</v>
       </c>
-      <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr">
         <is>
           <t>2026-02-26 16:51:50</t>
@@ -4501,11 +4491,769 @@
           <t>script_end</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr">
         <is>
           <t>2026-02-26 16:53:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2026-02-26 17:28:29</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:32:19</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>script_start</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2026-02-26 17:28:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2026-02-26 17:28:29</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:32:19</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>split_cycle_start</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>1</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2026-02-26 17:28:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2026-02-26 17:28:29</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:32:19</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>feedallgachas_start</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>1</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2026-02-26 17:28:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2026-02-26 17:28:29</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:32:19</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>feedallgachas_end</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>1</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2026-02-26 17:54:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2026-02-26 17:28:29</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:32:19</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>collectcrack_1_6_start</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>1</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2026-02-26 17:54:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2026-02-26 17:28:29</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:32:19</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>collectcrack_1_6_end</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>1</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:07:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2026-02-26 17:28:29</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:32:19</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>feedallgachas_between_start</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>1</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:07:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2026-02-26 17:28:29</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:32:19</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>feedallgachas_between_end</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>1</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:31:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2026-02-26 17:28:29</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:32:19</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>collectcrack_7_12_start</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>1</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:31:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2026-02-26 17:28:29</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:32:19</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>script_end</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:32:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:59:49</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:14:32</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>script_start</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:59:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:59:49</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:14:32</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>split_cycle_start</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:59:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:59:49</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:14:32</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>feedallgachas_start</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>1</v>
+      </c>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:59:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:59:49</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:14:32</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>feedallgachas_end</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>1</v>
+      </c>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:59:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:59:49</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:14:32</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>collectcrack_1_6_start</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>1</v>
+      </c>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:59:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:59:49</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:14:32</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>collectcrack_1_6_end</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>1</v>
+      </c>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:59:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:59:49</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:14:32</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>feedallgachas_between_start</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>1</v>
+      </c>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:59:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:59:49</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:14:32</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>feedallgachas_between_end</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>1</v>
+      </c>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:59:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:59:49</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:14:32</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>collectcrack_7_12_start</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>1</v>
+      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:59:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:59:49</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:14:32</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>collectcrack_7_12_end</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>1</v>
+      </c>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:14:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:59:49</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:14:32</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>split_cycle_end</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>1</v>
+      </c>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:14:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:59:49</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:14:32</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>split_cycle_start</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>2</v>
+      </c>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:14:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:59:49</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:14:32</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>feedallgachas_start</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>2</v>
+      </c>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:14:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:59:49</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:14:32</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>feedallgachas_end</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>2</v>
+      </c>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:14:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:59:49</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:14:32</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>collectcrack_1_6_start</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>2</v>
+      </c>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:14:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:59:49</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:14:32</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>collectcrack_1_6_end</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>2</v>
+      </c>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:14:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:59:49</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:14:32</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>feedallgachas_between_start</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>2</v>
+      </c>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:14:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:59:49</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:14:32</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>feedallgachas_between_end</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>2</v>
+      </c>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:14:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:59:49</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:14:32</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>collectcrack_7_12_start</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>2</v>
+      </c>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:14:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2026-02-26 18:59:49</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:14:32</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>script_end</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2026-02-26 19:14:32</t>
         </is>
       </c>
     </row>
